--- a/data/trans_orig/P04D_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>59266</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45735</v>
+        <v>45090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76309</v>
+        <v>75939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0567719904722197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04380989722257782</v>
+        <v>0.04319191722057797</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07309712294595205</v>
+        <v>0.07274289405050763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -764,19 +764,19 @@
         <v>69586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53292</v>
+        <v>53741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88701</v>
+        <v>87603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0621340747462617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04758503465173188</v>
+        <v>0.04798645490266424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07920258331655944</v>
+        <v>0.07822204278509723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -785,19 +785,19 @@
         <v>128852</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106745</v>
+        <v>106113</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157057</v>
+        <v>152432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05954718917972187</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04933079407686353</v>
+        <v>0.04903878258048198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07258187057710327</v>
+        <v>0.07044459741910214</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>688126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>656053</v>
+        <v>656598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>719984</v>
+        <v>717395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6591659537353085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.628442256725558</v>
+        <v>0.6289642100477073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6896824252709566</v>
+        <v>0.687203081582055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>697</v>
@@ -835,19 +835,19 @@
         <v>762470</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>732096</v>
+        <v>730464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>792919</v>
+        <v>793481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6808202138998667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6536996094629121</v>
+        <v>0.6522417995050361</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7080088734170716</v>
+        <v>0.7085103415209713</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1342</v>
@@ -856,19 +856,19 @@
         <v>1450596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1401919</v>
+        <v>1404101</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1499554</v>
+        <v>1491657</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6703733260460196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6478777193584337</v>
+        <v>0.6488860866633929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6929987172019619</v>
+        <v>0.6893491242015265</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>296542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>264738</v>
+        <v>266184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>327791</v>
+        <v>324076</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2840620557924717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2535962745865754</v>
+        <v>0.254981784709822</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3139954724031951</v>
+        <v>0.3104365645686342</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>272</v>
@@ -906,19 +906,19 @@
         <v>287873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>260195</v>
+        <v>258755</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>317570</v>
+        <v>317334</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2570457113538716</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.232332091695745</v>
+        <v>0.2310458270570806</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2835631859920149</v>
+        <v>0.2833521084767754</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>550</v>
@@ -927,19 +927,19 @@
         <v>584415</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>538583</v>
+        <v>542830</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>628600</v>
+        <v>624266</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2700794847742585</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2488988506959044</v>
+        <v>0.2508613071063784</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2904987787689843</v>
+        <v>0.2884962336002903</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>41922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30613</v>
+        <v>30208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57807</v>
+        <v>57759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0429053076026386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03133082501832442</v>
+        <v>0.0309165762111703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05916337363019952</v>
+        <v>0.05911480592057797</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -1052,19 +1052,19 @@
         <v>48281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36023</v>
+        <v>36125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62846</v>
+        <v>64128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04412180686525717</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03291966363880506</v>
+        <v>0.03301322064255335</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05743228522517869</v>
+        <v>0.05860416195775194</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -1073,19 +1073,19 @@
         <v>90202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72166</v>
+        <v>72261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>109014</v>
+        <v>109436</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04354797001317322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03484015369159714</v>
+        <v>0.03488625734360693</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05262960975245354</v>
+        <v>0.0528333298300519</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>653366</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>624804</v>
+        <v>623315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>682192</v>
+        <v>683050</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6686976128029604</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6394654795740616</v>
+        <v>0.637940961187732</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.698200097321566</v>
+        <v>0.6990780844362063</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>688</v>
@@ -1123,19 +1123,19 @@
         <v>740054</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>707345</v>
+        <v>706207</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>772564</v>
+        <v>773022</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6763045223022537</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.646413080106147</v>
+        <v>0.6453730539801192</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7060133291552703</v>
+        <v>0.7064318937896862</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1302</v>
@@ -1144,19 +1144,19 @@
         <v>1393421</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1351238</v>
+        <v>1351048</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1437007</v>
+        <v>1437008</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.672716254610446</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6523511178369823</v>
+        <v>0.6522594637267205</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6937587743857189</v>
+        <v>0.6937592027384968</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>281785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>255256</v>
+        <v>255551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>310872</v>
+        <v>314915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2883970795944011</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2612456665381932</v>
+        <v>0.2615470436451824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3181665026845497</v>
+        <v>0.3223044980802051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>287</v>
@@ -1194,19 +1194,19 @@
         <v>305927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>274315</v>
+        <v>275994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>337797</v>
+        <v>338567</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2795736708324892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2506846017306593</v>
+        <v>0.2522189833918493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3086982484607516</v>
+        <v>0.3094022030788972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>558</v>
@@ -1215,19 +1215,19 @@
         <v>587712</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>548125</v>
+        <v>545744</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>627156</v>
+        <v>631146</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2837357753763807</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2646238509910165</v>
+        <v>0.2634747010792026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3027785698928034</v>
+        <v>0.3047049692524739</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>20562</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12652</v>
+        <v>13374</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31720</v>
+        <v>31995</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02323087901278996</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01429457844868726</v>
+        <v>0.01510973829973943</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0358373984202742</v>
+        <v>0.0361474827092897</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1340,19 +1340,19 @@
         <v>23972</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15746</v>
+        <v>15528</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35962</v>
+        <v>34421</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02737183017535421</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01797901791639864</v>
+        <v>0.01773036880293178</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04106190574807096</v>
+        <v>0.03930213794088551</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -1361,19 +1361,19 @@
         <v>44534</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32041</v>
+        <v>33249</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58318</v>
+        <v>58782</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02529039694867437</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0181958961416244</v>
+        <v>0.01888182030441728</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03311802615708574</v>
+        <v>0.03338160475861825</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>579534</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>550867</v>
+        <v>550121</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>608936</v>
+        <v>609256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6547554874296688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6223673333565258</v>
+        <v>0.6215253797178747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6879743080560778</v>
+        <v>0.6883356352096995</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>530</v>
@@ -1411,19 +1411,19 @@
         <v>569177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>543612</v>
+        <v>540156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>596885</v>
+        <v>597272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6498967190520076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6207059412888853</v>
+        <v>0.6167596234905067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.681534336968421</v>
+        <v>0.6819763425219321</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1071</v>
@@ -1432,19 +1432,19 @@
         <v>1148711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1108257</v>
+        <v>1104752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1188075</v>
+        <v>1188735</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6523389603499569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6293654465835246</v>
+        <v>0.6273753145756531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6746932476019954</v>
+        <v>0.6750680508711486</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>285019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>256425</v>
+        <v>255363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312616</v>
+        <v>312612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3220136335575412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2897076658573572</v>
+        <v>0.2885077537765778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3531930285332431</v>
+        <v>0.3531876543014535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>268</v>
@@ -1482,19 +1482,19 @@
         <v>282647</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256776</v>
+        <v>254931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>309565</v>
+        <v>310909</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3227314507726381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2931910836888495</v>
+        <v>0.291084655665525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3534665859959745</v>
+        <v>0.3550019450446096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>537</v>
@@ -1503,19 +1503,19 @@
         <v>567666</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528413</v>
+        <v>528578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>608505</v>
+        <v>612370</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3223706427013687</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3000793608763633</v>
+        <v>0.3001731642458542</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3455626940940038</v>
+        <v>0.3477575488134567</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>19268</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11881</v>
+        <v>11838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31415</v>
+        <v>32897</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0383035983371546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02361922574091651</v>
+        <v>0.02353437357145845</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0624520542097412</v>
+        <v>0.06539902573121839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1628,19 +1628,19 @@
         <v>16635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9841</v>
+        <v>9691</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27893</v>
+        <v>27206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03674352243466956</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02173658409737117</v>
+        <v>0.02140502038410886</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06160948018224629</v>
+        <v>0.06009206003444185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1649,19 +1649,19 @@
         <v>35903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24557</v>
+        <v>23776</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51034</v>
+        <v>49819</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03756460196671205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0256940638197063</v>
+        <v>0.02487651488572954</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0533968817969518</v>
+        <v>0.05212514115391062</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>225362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199608</v>
+        <v>201827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>247666</v>
+        <v>250947</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4480154875248722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3968165048469445</v>
+        <v>0.4012284121735666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4923542304457289</v>
+        <v>0.4988775928295094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>194</v>
@@ -1699,19 +1699,19 @@
         <v>213248</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>191532</v>
+        <v>188955</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>236213</v>
+        <v>233943</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4710213524125191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4230541066250279</v>
+        <v>0.4173623416536849</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5217463546690198</v>
+        <v>0.5167327018072776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>404</v>
@@ -1720,19 +1720,19 @@
         <v>438610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405495</v>
+        <v>405223</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>473996</v>
+        <v>471502</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4589131948888419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4242648728553396</v>
+        <v>0.4239811753218798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4959368111457448</v>
+        <v>0.4933281862509133</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>258393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>236781</v>
+        <v>232604</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>284270</v>
+        <v>281898</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5136809141379731</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4707151294865001</v>
+        <v>0.462412489549431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5651237624312392</v>
+        <v>0.5604085763676746</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>203</v>
@@ -1770,19 +1770,19 @@
         <v>222853</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>198534</v>
+        <v>202306</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243357</v>
+        <v>246257</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4922351251528114</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4385194249309173</v>
+        <v>0.4468529531914548</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5375253683161515</v>
+        <v>0.5439299021905002</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>438</v>
@@ -1791,19 +1791,19 @@
         <v>481245</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>446930</v>
+        <v>449616</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>513640</v>
+        <v>516495</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5035222031444461</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4676184794257007</v>
+        <v>0.4704282316844581</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.537416475026529</v>
+        <v>0.5404030816866093</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>141017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119848</v>
+        <v>117941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165449</v>
+        <v>165279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04136445631884469</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03515497049751631</v>
+        <v>0.03459557571706012</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04853096634865121</v>
+        <v>0.04848115857150295</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -1916,19 +1916,19 @@
         <v>158474</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134236</v>
+        <v>136829</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>186192</v>
+        <v>185879</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04473220695686728</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03789063589459758</v>
+        <v>0.03862254565586029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0525562732199968</v>
+        <v>0.05246794984446505</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>275</v>
@@ -1937,19 +1937,19 @@
         <v>299491</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267849</v>
+        <v>265912</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>338078</v>
+        <v>338156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04308068643419628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03852903104039947</v>
+        <v>0.03825046078088096</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04863131714002071</v>
+        <v>0.04864243928759934</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>2146388</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2090202</v>
+        <v>2088183</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2206131</v>
+        <v>2204749</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6295972239848737</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6131162257087202</v>
+        <v>0.6125239544421546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6471215854208263</v>
+        <v>0.6467160870633515</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2109</v>
@@ -1987,19 +1987,19 @@
         <v>2284949</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2229016</v>
+        <v>2232959</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2343967</v>
+        <v>2344451</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.644969978749103</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6291817672824292</v>
+        <v>0.6302947897890264</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6616286957641498</v>
+        <v>0.6617653150930186</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4119</v>
@@ -2008,19 +2008,19 @@
         <v>4431338</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4348853</v>
+        <v>4344860</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4514595</v>
+        <v>4510506</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6374312911466206</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6255662537935723</v>
+        <v>0.6249918758306533</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6494075904261232</v>
+        <v>0.6488193615205093</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>1121739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1063595</v>
+        <v>1064480</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1175083</v>
+        <v>1181712</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3290383196962816</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3119829216980436</v>
+        <v>0.3122423725857592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3446854856087941</v>
+        <v>0.346630019851665</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1030</v>
@@ -2058,19 +2058,19 @@
         <v>1099299</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1042350</v>
+        <v>1048159</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1159481</v>
+        <v>1155811</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3102978142940298</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2942228166079062</v>
+        <v>0.2958625388498947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3272854360224786</v>
+        <v>0.3262493981573247</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2083</v>
@@ -2079,19 +2079,19 @@
         <v>2221038</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2139493</v>
+        <v>2139196</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2305039</v>
+        <v>2299893</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3194880224191832</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3077580837475499</v>
+        <v>0.3077152624438328</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3315712633066892</v>
+        <v>0.3308309781632353</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>203962</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176444</v>
+        <v>177585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>231425</v>
+        <v>232416</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.180818243135575</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.156422515287669</v>
+        <v>0.1574335709620642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.205164518238803</v>
+        <v>0.2060430470763513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>182</v>
@@ -2444,19 +2444,19 @@
         <v>196106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>170510</v>
+        <v>170923</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>223816</v>
+        <v>223549</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1556941847188393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1353722055967171</v>
+        <v>0.1357003518733672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1776940039048483</v>
+        <v>0.1774818433193076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>363</v>
@@ -2465,19 +2465,19 @@
         <v>400069</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>363875</v>
+        <v>361621</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>434968</v>
+        <v>438707</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1675639982703635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1524045942920861</v>
+        <v>0.1514607486365428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1821812460335889</v>
+        <v>0.1837472176370425</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>709077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676442</v>
+        <v>674803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>743608</v>
+        <v>743553</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.628616155250262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5996843333522989</v>
+        <v>0.598231524471591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.659228932923665</v>
+        <v>0.6591802753640416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>757</v>
@@ -2515,19 +2515,19 @@
         <v>795194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>759500</v>
+        <v>760497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>833560</v>
+        <v>830986</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6313265891428536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6029875545284282</v>
+        <v>0.6037794580605294</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6617863483720201</v>
+        <v>0.6597424134262957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1440</v>
@@ -2536,19 +2536,19 @@
         <v>1504271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1461053</v>
+        <v>1457822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1552865</v>
+        <v>1550797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.630046049812179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6119446493824386</v>
+        <v>0.6105914293366633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6503989668035181</v>
+        <v>0.6495325265360409</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>214957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>189531</v>
+        <v>189151</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>243419</v>
+        <v>242435</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.190565601614163</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1680245146598864</v>
+        <v>0.1676877409473622</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2157975602439424</v>
+        <v>0.2149249123131464</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>249</v>
@@ -2586,19 +2586,19 @@
         <v>268260</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>238372</v>
+        <v>238316</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>299254</v>
+        <v>298498</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2129792261383071</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.189250003344155</v>
+        <v>0.189205726213877</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2375857473105405</v>
+        <v>0.2369857928878764</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>451</v>
@@ -2607,19 +2607,19 @@
         <v>483218</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>443854</v>
+        <v>443271</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>525050</v>
+        <v>526282</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2023899519174574</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1859030283745744</v>
+        <v>0.185658836683568</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2199109413799076</v>
+        <v>0.2204269633076794</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>172705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149393</v>
+        <v>148110</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>197450</v>
+        <v>195956</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1900307468227416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1643808453233095</v>
+        <v>0.1629689296613087</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.217258854868228</v>
+        <v>0.215614167695189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -2732,19 +2732,19 @@
         <v>172039</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>150692</v>
+        <v>149410</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>197796</v>
+        <v>198681</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1709318146557504</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1497226941383539</v>
+        <v>0.1484487367693532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1965237063115187</v>
+        <v>0.1974026372551236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>325</v>
@@ -2753,19 +2753,19 @@
         <v>344743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>315667</v>
+        <v>309883</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>380216</v>
+        <v>379213</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1799944064790409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1648135359473848</v>
+        <v>0.1617933275629039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1985148984681415</v>
+        <v>0.1979913370043573</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>455739</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>427480</v>
+        <v>427450</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>487239</v>
+        <v>488127</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.50145926769836</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4703658844448113</v>
+        <v>0.4703325909189225</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5361195554853299</v>
+        <v>0.537096496498889</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>500</v>
@@ -2803,19 +2803,19 @@
         <v>526877</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>494190</v>
+        <v>497424</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>558362</v>
+        <v>559743</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.523487178788317</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4910110679606166</v>
+        <v>0.4942242252995676</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5547699613022191</v>
+        <v>0.5561415534255156</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>954</v>
@@ -2824,19 +2824,19 @@
         <v>982615</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>935659</v>
+        <v>935989</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1025414</v>
+        <v>1025676</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5130347636908366</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4885182186965322</v>
+        <v>0.4886905310775117</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.535380356187539</v>
+        <v>0.5355173983781956</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>280382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>253598</v>
+        <v>253498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>309081</v>
+        <v>309682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3085099854788984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2790391242129294</v>
+        <v>0.278929353650711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3400882942144375</v>
+        <v>0.3407502207714992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>287</v>
@@ -2874,19 +2874,19 @@
         <v>307560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>278861</v>
+        <v>277545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>337440</v>
+        <v>336974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3055810065559327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2770669754764221</v>
+        <v>0.275759490428184</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3352692156799064</v>
+        <v>0.3348058068281441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>553</v>
@@ -2895,19 +2895,19 @@
         <v>587941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>549336</v>
+        <v>544925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>633354</v>
+        <v>627383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3069708298301226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2868148577182755</v>
+        <v>0.2845115412508589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3306811243452935</v>
+        <v>0.3275636317580272</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>87345</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>70561</v>
+        <v>69680</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108198</v>
+        <v>105459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1060321784014594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08565763974279302</v>
+        <v>0.08458809452457844</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.131346902007379</v>
+        <v>0.1280220123568309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -3020,19 +3020,19 @@
         <v>92468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75573</v>
+        <v>76827</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111893</v>
+        <v>111463</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1199232063644264</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09801140898749029</v>
+        <v>0.09963805790830946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1451161960856802</v>
+        <v>0.1445579939380452</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>170</v>
@@ -3041,19 +3041,19 @@
         <v>179813</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156795</v>
+        <v>154058</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>208039</v>
+        <v>205585</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1127481785864679</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.098315010073297</v>
+        <v>0.09659887174883867</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1304471104236447</v>
+        <v>0.1289078257391008</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>381697</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>350710</v>
+        <v>353032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>409632</v>
+        <v>411328</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4633603375076992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4257438407039548</v>
+        <v>0.4285617406814866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4972712593965942</v>
+        <v>0.4993306187347576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -3091,19 +3091,19 @@
         <v>323347</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>297440</v>
+        <v>298024</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>351790</v>
+        <v>351949</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4193537744588402</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3857555365469508</v>
+        <v>0.3865120836023094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.456242408378088</v>
+        <v>0.456448843481581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>679</v>
@@ -3112,19 +3112,19 @@
         <v>705044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>665971</v>
+        <v>664173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>747847</v>
+        <v>747618</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4420841521623348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4175845845904364</v>
+        <v>0.4164568242889204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4689228248712182</v>
+        <v>0.468779729591872</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>354717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325483</v>
+        <v>323793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>385530</v>
+        <v>383803</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4306074840908413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3951191538487805</v>
+        <v>0.3930677752419645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.468012625663314</v>
+        <v>0.465916076889766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>331</v>
@@ -3162,19 +3162,19 @@
         <v>355245</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322570</v>
+        <v>327526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382693</v>
+        <v>383119</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4607230191767334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4183472715053718</v>
+        <v>0.4247745508731009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4963213115279106</v>
+        <v>0.4968738727509586</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>666</v>
@@ -3183,19 +3183,19 @@
         <v>709961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>668248</v>
+        <v>665472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>749198</v>
+        <v>750822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4451676692511972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4190118157828423</v>
+        <v>0.4172715975580471</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4697704069684889</v>
+        <v>0.4707884556269893</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>67147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51898</v>
+        <v>52712</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85335</v>
+        <v>85930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1325180452381077</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1024241562715866</v>
+        <v>0.1040301787408657</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1684126911483122</v>
+        <v>0.1695870433004315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -3308,19 +3308,19 @@
         <v>52289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40119</v>
+        <v>39583</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66542</v>
+        <v>68151</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1067773338725274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08192584392972919</v>
+        <v>0.08083080052123803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1358838719625258</v>
+        <v>0.1391703345859177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -3329,19 +3329,19 @@
         <v>119436</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100690</v>
+        <v>99818</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141020</v>
+        <v>141656</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1198673197182349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1010542105595243</v>
+        <v>0.1001790493278185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1415296833248016</v>
+        <v>0.1421680030146348</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>235630</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>212352</v>
+        <v>213539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>258681</v>
+        <v>258609</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4650276008828792</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4190865252691425</v>
+        <v>0.4214306925406915</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5105197665704878</v>
+        <v>0.5103779048987067</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>179</v>
@@ -3379,19 +3379,19 @@
         <v>193285</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170375</v>
+        <v>169953</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214925</v>
+        <v>214288</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3947031680624299</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3479189375526687</v>
+        <v>0.3470562555570814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4388939591519186</v>
+        <v>0.4375927593211719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -3400,19 +3400,19 @@
         <v>428915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>398405</v>
+        <v>394083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>462279</v>
+        <v>459202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4304654209836143</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3998449215680892</v>
+        <v>0.3955077650805841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4639504100308022</v>
+        <v>0.4608620993371954</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>203924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>182623</v>
+        <v>180875</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>227524</v>
+        <v>227021</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4024543538790131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3604149100692519</v>
+        <v>0.356966564149186</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4490300499941421</v>
+        <v>0.4480383787283396</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>226</v>
@@ -3450,19 +3450,19 @@
         <v>244124</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>221943</v>
+        <v>221246</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>268522</v>
+        <v>266363</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4985194980650428</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4532252274717863</v>
+        <v>0.451801554064003</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5483426607306284</v>
+        <v>0.5439324592440991</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>420</v>
@@ -3471,19 +3471,19 @@
         <v>448048</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>415286</v>
+        <v>417917</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>478561</v>
+        <v>483800</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4496672592981508</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4167872008698799</v>
+        <v>0.4194274949446536</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4802914162658699</v>
+        <v>0.4855485304359725</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>531159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>487070</v>
+        <v>486293</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>574616</v>
+        <v>577413</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1577411984382915</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1446478076974468</v>
+        <v>0.1444171444689532</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1706469424565966</v>
+        <v>0.1714775809558127</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>484</v>
@@ -3596,19 +3596,19 @@
         <v>512901</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>467979</v>
+        <v>475078</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>556264</v>
+        <v>557471</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1454299882411298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1326926818138562</v>
+        <v>0.1347053097625187</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1577253191751802</v>
+        <v>0.1580675044897362</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>969</v>
@@ -3617,19 +3617,19 @@
         <v>1044061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>991142</v>
+        <v>986014</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1117818</v>
+        <v>1103580</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1514431694074885</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1437672455063174</v>
+        <v>0.1430234264647324</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1621419054527355</v>
+        <v>0.1600766023981002</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>1782143</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1720866</v>
+        <v>1721882</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1838047</v>
+        <v>1840577</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5292526920281669</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5110548974903178</v>
+        <v>0.5113565638017171</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5458548966919168</v>
+        <v>0.5466062151276455</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1745</v>
@@ -3667,19 +3667,19 @@
         <v>1838702</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1780853</v>
+        <v>1773826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1899775</v>
+        <v>1897716</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5213526894810078</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5049498079744416</v>
+        <v>0.5029573181818464</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5386695567063766</v>
+        <v>0.5380856443315338</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3468</v>
@@ -3688,19 +3688,19 @@
         <v>3620846</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3533774</v>
+        <v>3536159</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3697349</v>
+        <v>3706752</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5252112984861335</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5125812876016922</v>
+        <v>0.5129272747136164</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5363081627520531</v>
+        <v>0.5376720703362935</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>1053980</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>998862</v>
+        <v>1000902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1110273</v>
+        <v>1112552</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3130061095335415</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2966374873712917</v>
+        <v>0.2972434279137703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3297238089385797</v>
+        <v>0.33040054807639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1093</v>
@@ -3738,19 +3738,19 @@
         <v>1175188</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1117207</v>
+        <v>1111342</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1233735</v>
+        <v>1231172</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3332173222778625</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.316777237826467</v>
+        <v>0.3151142130703503</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3498179521468165</v>
+        <v>0.3490912134937351</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2090</v>
@@ -3759,19 +3759,19 @@
         <v>2229168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2146751</v>
+        <v>2148507</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2309336</v>
+        <v>2306550</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3233455321063781</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3113907083469682</v>
+        <v>0.3116454890743046</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3349740020938199</v>
+        <v>0.3345699405912885</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>82944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65679</v>
+        <v>66381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102854</v>
+        <v>101684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1666690474301194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1319770786802085</v>
+        <v>0.1333872812575917</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2066777363908519</v>
+        <v>0.2043265140244969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -4124,19 +4124,19 @@
         <v>79587</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65513</v>
+        <v>65784</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96408</v>
+        <v>96184</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1276285329016177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1050598943863714</v>
+        <v>0.105494415363373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1546034376584749</v>
+        <v>0.1542453018309267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -4145,19 +4145,19 @@
         <v>162530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141591</v>
+        <v>139356</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189451</v>
+        <v>186937</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1449564537590369</v>
+        <v>0.144956453759037</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.126281727586049</v>
+        <v>0.1242878108107005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1689665954440718</v>
+        <v>0.1667242499350599</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>366996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>342792</v>
+        <v>346404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>385153</v>
+        <v>387303</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7374517283845892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6888159477402972</v>
+        <v>0.6960738648283239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7739379256332762</v>
+        <v>0.7782583051933352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>621</v>
@@ -4195,19 +4195,19 @@
         <v>446558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>422142</v>
+        <v>425585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>464428</v>
+        <v>466856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7161203318037758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6769658358121678</v>
+        <v>0.6824866224376545</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7447766157067511</v>
+        <v>0.748669854215829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>951</v>
@@ -4216,19 +4216,19 @@
         <v>813554</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>780768</v>
+        <v>784057</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>841558</v>
+        <v>844250</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7255881566056419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6963470638703806</v>
+        <v>0.6992807202987352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7505643712465773</v>
+        <v>0.752965435336253</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>47715</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36080</v>
+        <v>36158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63200</v>
+        <v>64506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09587922418529138</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07249950454196301</v>
+        <v>0.0726568448474133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1269959406704642</v>
+        <v>0.1296208040747651</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -4266,19 +4266,19 @@
         <v>97435</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>82481</v>
+        <v>81369</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>116723</v>
+        <v>116475</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1562511352946064</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1322705851563739</v>
+        <v>0.1304876125437436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1871819707460318</v>
+        <v>0.1867838295997942</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>179</v>
@@ -4287,19 +4287,19 @@
         <v>145150</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125270</v>
+        <v>125447</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>170714</v>
+        <v>167860</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1294553896353212</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1117254025047941</v>
+        <v>0.1118830226393102</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1522558271349152</v>
+        <v>0.1497096787727507</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>116089</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>92974</v>
+        <v>95156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139033</v>
+        <v>139855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1209091356864772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09683442359976256</v>
+        <v>0.09910707170715412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1448051881329945</v>
+        <v>0.1456609902054707</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>188</v>
@@ -4412,19 +4412,19 @@
         <v>130515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113358</v>
+        <v>112845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149660</v>
+        <v>147993</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1169648786366987</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1015890534410312</v>
+        <v>0.1011291551871305</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1341219850035398</v>
+        <v>0.1326283012933908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>287</v>
@@ -4433,19 +4433,19 @@
         <v>246604</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>216496</v>
+        <v>217672</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>277847</v>
+        <v>277168</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1187890845222359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1042857870829466</v>
+        <v>0.1048521351269232</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1338387710164936</v>
+        <v>0.133511667473795</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>699538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>666577</v>
+        <v>665009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>732857</v>
+        <v>728748</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7285815987858776</v>
+        <v>0.7285815987858775</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6942514963729838</v>
+        <v>0.6926190523331598</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7632835163820931</v>
+        <v>0.7590040969580777</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1187</v>
@@ -4483,19 +4483,19 @@
         <v>826649</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>801939</v>
+        <v>801507</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>853230</v>
+        <v>850318</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7408252288307391</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7186806394647186</v>
+        <v>0.7182931289350348</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7646462764525441</v>
+        <v>0.7620366239815279</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1869</v>
@@ -4504,19 +4504,19 @@
         <v>1526187</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1483619</v>
+        <v>1485542</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1565029</v>
+        <v>1566374</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.7351625902891079</v>
+        <v>0.7351625902891078</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7146574718734757</v>
+        <v>0.7155837741347821</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7538724090167361</v>
+        <v>0.7545203507113727</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>144510</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119081</v>
+        <v>120668</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174466</v>
+        <v>173762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1505092655276454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1240252508200685</v>
+        <v>0.1256781101499364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1817093119550401</v>
+        <v>0.1809758736889178</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>232</v>
@@ -4554,19 +4554,19 @@
         <v>158685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139026</v>
+        <v>137968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180302</v>
+        <v>180447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1422098925325621</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1245919719700028</v>
+        <v>0.1236443478135899</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1615826636494437</v>
+        <v>0.1617125673759873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>361</v>
@@ -4575,19 +4575,19 @@
         <v>303194</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>274234</v>
+        <v>272720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>337580</v>
+        <v>340756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1460483251886563</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1320982807482423</v>
+        <v>0.1313690193702135</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1626118593995023</v>
+        <v>0.164141763511786</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>107250</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84895</v>
+        <v>88009</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129805</v>
+        <v>135025</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1024860758934508</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08112487370516383</v>
+        <v>0.08410014228721789</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1240397382461646</v>
+        <v>0.1290277470688694</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>163</v>
@@ -4700,19 +4700,19 @@
         <v>117876</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>102618</v>
+        <v>101925</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138464</v>
+        <v>136988</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1125158697045562</v>
+        <v>0.1125158697045563</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09795173705292622</v>
+        <v>0.09729016934839076</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1321671910005036</v>
+        <v>0.1307587072620103</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>253</v>
@@ -4721,19 +4721,19 @@
         <v>225126</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>199173</v>
+        <v>197877</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>258984</v>
+        <v>256422</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1075037563545557</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09511066863917815</v>
+        <v>0.09449167708643905</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1236718954012514</v>
+        <v>0.1224486638988912</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>668669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>630014</v>
+        <v>632309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>702608</v>
+        <v>700066</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6389704343815655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6020318117033887</v>
+        <v>0.6042254059791415</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6714022232562539</v>
+        <v>0.6689729191516781</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>946</v>
@@ -4771,19 +4771,19 @@
         <v>644942</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>615479</v>
+        <v>614981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>672643</v>
+        <v>670729</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6156127898328785</v>
+        <v>0.6156127898328787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5874902333307663</v>
+        <v>0.5870141430219115</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6420540099344397</v>
+        <v>0.6402271523649961</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1616</v>
@@ -4792,19 +4792,19 @@
         <v>1313611</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1265965</v>
+        <v>1270635</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1355721</v>
+        <v>1360532</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6272851296906944</v>
+        <v>0.6272851296906946</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6045328145779635</v>
+        <v>0.606762904657818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.647393915118145</v>
+        <v>0.6496911493136747</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>270560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239083</v>
+        <v>240620</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302152</v>
+        <v>302662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2585434897249836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2284638935242503</v>
+        <v>0.2299333287426134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2887324465876666</v>
+        <v>0.2892191336671789</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>407</v>
@@ -4842,19 +4842,19 @@
         <v>284824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259100</v>
+        <v>261987</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>310700</v>
+        <v>311263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2718713404625652</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2473174921181633</v>
+        <v>0.2500726807108852</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2965707442960333</v>
+        <v>0.2971078674477618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>676</v>
@@ -4863,19 +4863,19 @@
         <v>555384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>516689</v>
+        <v>516172</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>598200</v>
+        <v>594346</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2652111139547497</v>
+        <v>0.2652111139547498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2467332674505489</v>
+        <v>0.2464861551653249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2856568252754267</v>
+        <v>0.2838165150428011</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>119373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95318</v>
+        <v>97378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144285</v>
+        <v>146152</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.122317590632518</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09766865781284373</v>
+        <v>0.09977941034678202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1478441653101235</v>
+        <v>0.1497569918396485</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -4988,19 +4988,19 @@
         <v>125428</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105314</v>
+        <v>105700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150123</v>
+        <v>147654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.137781136654425</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1156858548915633</v>
+        <v>0.116109329812907</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1649073793048892</v>
+        <v>0.1621960342723611</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -5009,19 +5009,19 @@
         <v>244802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>214734</v>
+        <v>214363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>282755</v>
+        <v>277500</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1297805362534299</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1138401338192273</v>
+        <v>0.1136433894164663</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.149901476362065</v>
+        <v>0.1471152328745174</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>491665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456904</v>
+        <v>460882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>527499</v>
+        <v>529415</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5037914968736436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4681731137647349</v>
+        <v>0.472249576872301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5405091999191436</v>
+        <v>0.5424729573475314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>754</v>
@@ -5059,19 +5059,19 @@
         <v>477694</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>451745</v>
+        <v>448744</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>505886</v>
+        <v>504360</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5247392861498308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4962350433213576</v>
+        <v>0.4929382941194806</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5557081002245676</v>
+        <v>0.5540318967880298</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1255</v>
@@ -5080,19 +5080,19 @@
         <v>969359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>925310</v>
+        <v>922849</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1011771</v>
+        <v>1011734</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5139012228074645</v>
+        <v>0.5139012228074644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4905490669068954</v>
+        <v>0.4892443555838493</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5363860735602133</v>
+        <v>0.5363663140880618</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>364891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>328850</v>
+        <v>328442</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>398125</v>
+        <v>396901</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3738909124938385</v>
+        <v>0.3738909124938384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3369613698263373</v>
+        <v>0.3365429840886689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4079449067631273</v>
+        <v>0.4066902739304925</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>422</v>
@@ -5130,19 +5130,19 @@
         <v>307223</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>280432</v>
+        <v>283119</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>334390</v>
+        <v>334744</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3374795771957443</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3080498619815089</v>
+        <v>0.3110019080078934</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3673226876972275</v>
+        <v>0.3677114331072442</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>769</v>
@@ -5151,19 +5151,19 @@
         <v>672114</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>629438</v>
+        <v>632815</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>715144</v>
+        <v>718165</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3563182409391057</v>
+        <v>0.3563182409391058</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3336935746476439</v>
+        <v>0.3354840138126787</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3791303306769198</v>
+        <v>0.3807320792439412</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>425656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>381329</v>
+        <v>381601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>469799</v>
+        <v>471954</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1223078450245192</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1095709781056137</v>
+        <v>0.1096490602768044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1349920351569708</v>
+        <v>0.1356112025471584</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>609</v>
@@ -5276,19 +5276,19 @@
         <v>453406</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>418117</v>
+        <v>419464</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>491542</v>
+        <v>493553</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1226279287416377</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1130836733536168</v>
+        <v>0.1134478055392843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1329420675206064</v>
+        <v>0.1334858801977239</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>972</v>
@@ -5297,19 +5297,19 @@
         <v>879062</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>824243</v>
+        <v>826488</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>940828</v>
+        <v>931112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1224727302599876</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1148351672570589</v>
+        <v>0.1151479649063325</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1310780896103331</v>
+        <v>0.1297244656782403</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>2226868</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2158149</v>
+        <v>2165978</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2287593</v>
+        <v>2293654</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6398679326016593</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6201222616864924</v>
+        <v>0.6223719846064379</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.657316734199799</v>
+        <v>0.6590581877789035</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3508</v>
@@ -5347,19 +5347,19 @@
         <v>2395843</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2343536</v>
+        <v>2339178</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2450001</v>
+        <v>2446367</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.6479776902696152</v>
+        <v>0.6479776902696153</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6338308905365039</v>
+        <v>0.632652029037947</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6626252907321381</v>
+        <v>0.6616423745096066</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5691</v>
@@ -5368,19 +5368,19 @@
         <v>4622711</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4532139</v>
+        <v>4541344</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4703559</v>
+        <v>4708415</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6440455249975181</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6314268720792382</v>
+        <v>0.6327093102263424</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6553094827217402</v>
+        <v>0.6559859811841968</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>827676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>773567</v>
+        <v>770567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>889295</v>
+        <v>884351</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2378242223738216</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2222766020097048</v>
+        <v>0.2214145077389681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2555300601632152</v>
+        <v>0.2541093446331492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1191</v>
@@ -5418,19 +5418,19 @@
         <v>848166</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>802152</v>
+        <v>802378</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>892058</v>
+        <v>894111</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2293943809887471</v>
+        <v>0.2293943809887472</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2169494779861282</v>
+        <v>0.2170105773007624</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2412652989421795</v>
+        <v>0.2418204001573525</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1985</v>
@@ -5439,19 +5439,19 @@
         <v>1675842</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1604355</v>
+        <v>1597698</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1756117</v>
+        <v>1753280</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2334817447424943</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2235219725351615</v>
+        <v>0.2225944874441429</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2446657909462897</v>
+        <v>0.2442705567646218</v>
       </c>
     </row>
     <row r="23">
